--- a/DZ_7-7_main/data_file.xlsx
+++ b/DZ_7-7_main/data_file.xlsx
@@ -1,116 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11835"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="120" windowWidth="19155" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_list" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_list" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Год рождения</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Семёнова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валентина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петров </t>
-  </si>
-  <si>
-    <t>Пётр</t>
-  </si>
-  <si>
-    <t>Калмыков</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Сидова</t>
-  </si>
-  <si>
-    <t>Елена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанова </t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>Малышева</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Шафигуллин</t>
-  </si>
-  <si>
-    <t>Ильнар</t>
-  </si>
-  <si>
-    <t>Старостин</t>
-  </si>
-  <si>
-    <t>Глеб</t>
-  </si>
-  <si>
-    <t>Ппавлова</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,19 +71,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,170 +438,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A12:D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" min="3" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Год рождения</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Семёнова</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Валентина </t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Петров </t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Пётр</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Калмыков</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Сидова</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Степанова </t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Малышева</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Шафигуллин</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Ильнар</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Старостин</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Глеб</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Ппавлова</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2015</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2006</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Петрова </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8-937-075-12-96</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Калмыков Александр</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>569-863</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
